--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H2">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J2">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N2">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P2">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q2">
-        <v>0.009246158961333333</v>
+        <v>0.026259955145</v>
       </c>
       <c r="R2">
-        <v>0.083215430652</v>
+        <v>0.236339596305</v>
       </c>
       <c r="S2">
-        <v>0.0006269681833266667</v>
+        <v>0.001511351302691551</v>
       </c>
       <c r="T2">
-        <v>0.0006269681833266668</v>
+        <v>0.001511351302691551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H3">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J3">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.9512</v>
       </c>
       <c r="O3">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P3">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q3">
-        <v>0.07826975893333335</v>
+        <v>0.143856244</v>
       </c>
       <c r="R3">
-        <v>0.7044278304</v>
+        <v>1.294706196</v>
       </c>
       <c r="S3">
-        <v>0.00530735506203883</v>
+        <v>0.008279424719851844</v>
       </c>
       <c r="T3">
-        <v>0.00530735506203883</v>
+        <v>0.008279424719851845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H4">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J4">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N4">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O4">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P4">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q4">
-        <v>0.1103541275826667</v>
+        <v>0.216654902955</v>
       </c>
       <c r="R4">
-        <v>0.993187148244</v>
+        <v>1.949894126595</v>
       </c>
       <c r="S4">
-        <v>0.007482948020085356</v>
+        <v>0.01246923949441311</v>
       </c>
       <c r="T4">
-        <v>0.007482948020085356</v>
+        <v>0.01246923949441311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07956400000000001</v>
+        <v>0.146235</v>
       </c>
       <c r="H5">
-        <v>0.238692</v>
+        <v>0.438705</v>
       </c>
       <c r="I5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="J5">
-        <v>0.01354292530636293</v>
+        <v>0.0224838618501081</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N5">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P5">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q5">
-        <v>0.001853072081333334</v>
+        <v>0.00388936355</v>
       </c>
       <c r="R5">
-        <v>0.016677648732</v>
+        <v>0.03500427195</v>
       </c>
       <c r="S5">
-        <v>0.0001256540409120748</v>
+        <v>0.0002238463331515921</v>
       </c>
       <c r="T5">
-        <v>0.0001256540409120748</v>
+        <v>0.0002238463331515922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H6">
         <v>11.379323</v>
       </c>
       <c r="I6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J6">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N6">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O6">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P6">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q6">
-        <v>0.4407983063125556</v>
+        <v>0.6811422517647777</v>
       </c>
       <c r="R6">
-        <v>3.967184756813</v>
+        <v>6.130280265883</v>
       </c>
       <c r="S6">
-        <v>0.0298898725922836</v>
+        <v>0.03920209398068845</v>
       </c>
       <c r="T6">
-        <v>0.0298898725922836</v>
+        <v>0.03920209398068845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H7">
         <v>11.379323</v>
       </c>
       <c r="I7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J7">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>2.9512</v>
       </c>
       <c r="O7">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P7">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q7">
-        <v>3.731406448622223</v>
+        <v>3.731406448622222</v>
       </c>
       <c r="R7">
-        <v>33.58265803760001</v>
+        <v>33.5826580376</v>
       </c>
       <c r="S7">
-        <v>0.2530210795779703</v>
+        <v>0.2147553552874452</v>
       </c>
       <c r="T7">
-        <v>0.2530210795779703</v>
+        <v>0.2147553552874452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H8">
         <v>11.379323</v>
       </c>
       <c r="I8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J8">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N8">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O8">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P8">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q8">
-        <v>5.260985965790112</v>
+        <v>5.619690042872999</v>
       </c>
       <c r="R8">
-        <v>47.34887369211101</v>
+        <v>50.57721038585699</v>
       </c>
       <c r="S8">
-        <v>0.3567395744841124</v>
+        <v>0.3234326113704732</v>
       </c>
       <c r="T8">
-        <v>0.3567395744841124</v>
+        <v>0.3234326113704734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.793107666666667</v>
+        <v>3.793107666666666</v>
       </c>
       <c r="H9">
         <v>11.379323</v>
       </c>
       <c r="I9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568996</v>
       </c>
       <c r="J9">
-        <v>0.6456409155982509</v>
+        <v>0.5831962851568997</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N9">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O9">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P9">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q9">
-        <v>0.0883427419258889</v>
+        <v>0.1008840202411111</v>
       </c>
       <c r="R9">
-        <v>0.7950846773330001</v>
+        <v>0.90795618217</v>
       </c>
       <c r="S9">
-        <v>0.005990388943884643</v>
+        <v>0.005806224518292644</v>
       </c>
       <c r="T9">
-        <v>0.005990388943884643</v>
+        <v>0.005806224518292645</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H10">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J10">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N10">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O10">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P10">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q10">
-        <v>0.2280877643883333</v>
+        <v>0.410953079151</v>
       </c>
       <c r="R10">
-        <v>2.052789879495</v>
+        <v>3.698577712359</v>
       </c>
       <c r="S10">
-        <v>0.01546628950201094</v>
+        <v>0.02365177198858342</v>
       </c>
       <c r="T10">
-        <v>0.01546628950201094</v>
+        <v>0.02365177198858342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H11">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J11">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.9512</v>
       </c>
       <c r="O11">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P11">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q11">
-        <v>1.930788169333334</v>
+        <v>2.2512668472</v>
       </c>
       <c r="R11">
-        <v>17.377093524</v>
+        <v>20.2614016248</v>
       </c>
       <c r="S11">
-        <v>0.1309238523778284</v>
+        <v>0.1295681985530681</v>
       </c>
       <c r="T11">
-        <v>0.1309238523778284</v>
+        <v>0.1295681985530681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H12">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J12">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N12">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O12">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P12">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q12">
-        <v>2.722257572751667</v>
+        <v>3.390523669629</v>
       </c>
       <c r="R12">
-        <v>24.500318154765</v>
+        <v>30.514713026661</v>
       </c>
       <c r="S12">
-        <v>0.1845922065663092</v>
+        <v>0.1951363715819602</v>
       </c>
       <c r="T12">
-        <v>0.1845922065663092</v>
+        <v>0.1951363715819602</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.962715</v>
+        <v>2.288493</v>
       </c>
       <c r="H13">
-        <v>5.888145000000001</v>
+        <v>6.865479000000001</v>
       </c>
       <c r="I13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="J13">
-        <v>0.3340820300975078</v>
+        <v>0.3518594075080483</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N13">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O13">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P13">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q13">
-        <v>0.04571228658833334</v>
+        <v>0.06086628549000001</v>
       </c>
       <c r="R13">
-        <v>0.4114105792950001</v>
+        <v>0.54779656941</v>
       </c>
       <c r="S13">
-        <v>0.003099681651359192</v>
+        <v>0.003503065384436602</v>
       </c>
       <c r="T13">
-        <v>0.003099681651359193</v>
+        <v>0.003503065384436602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H14">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I14">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J14">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1162103333333333</v>
+        <v>0.1795736666666667</v>
       </c>
       <c r="N14">
-        <v>0.348631</v>
+        <v>0.538721</v>
       </c>
       <c r="O14">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="P14">
-        <v>0.04629488601196787</v>
+        <v>0.06721938218475064</v>
       </c>
       <c r="Q14">
-        <v>0.004597590680888889</v>
+        <v>0.04959154264977777</v>
       </c>
       <c r="R14">
-        <v>0.041378316128</v>
+        <v>0.4463238838479999</v>
       </c>
       <c r="S14">
-        <v>0.0003117557343466702</v>
+        <v>0.00285416491278722</v>
       </c>
       <c r="T14">
-        <v>0.0003117557343466703</v>
+        <v>0.002854164912787221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H15">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I15">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J15">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.9512</v>
       </c>
       <c r="O15">
-        <v>0.3918913338128842</v>
+        <v>0.3682385515018647</v>
       </c>
       <c r="P15">
-        <v>0.3918913338128841</v>
+        <v>0.3682385515018648</v>
       </c>
       <c r="Q15">
-        <v>0.03891911395555556</v>
+        <v>0.2716704206222222</v>
       </c>
       <c r="R15">
-        <v>0.3502720256</v>
+        <v>2.4450337856</v>
       </c>
       <c r="S15">
-        <v>0.002639046795046606</v>
+        <v>0.01563557294149967</v>
       </c>
       <c r="T15">
-        <v>0.002639046795046607</v>
+        <v>0.01563557294149967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H16">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I16">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J16">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.386985666666667</v>
+        <v>1.481553</v>
       </c>
       <c r="N16">
-        <v>4.160957</v>
+        <v>4.444659</v>
       </c>
       <c r="O16">
-        <v>0.5525355749078534</v>
+        <v>0.5545861995390778</v>
       </c>
       <c r="P16">
-        <v>0.5525355749078533</v>
+        <v>0.554586199539078</v>
       </c>
       <c r="Q16">
-        <v>0.05487285160177778</v>
+        <v>0.4091496272879999</v>
       </c>
       <c r="R16">
-        <v>0.493855664416</v>
+        <v>3.682346645591999</v>
       </c>
       <c r="S16">
-        <v>0.003720845837346416</v>
+        <v>0.02354797709223129</v>
       </c>
       <c r="T16">
-        <v>0.003720845837346416</v>
+        <v>0.0235479770922313</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03956266666666667</v>
+        <v>0.2761626666666666</v>
       </c>
       <c r="H17">
-        <v>0.118688</v>
+        <v>0.8284879999999999</v>
       </c>
       <c r="I17">
-        <v>0.006734128997878449</v>
+        <v>0.04246044548494399</v>
       </c>
       <c r="J17">
-        <v>0.006734128997878451</v>
+        <v>0.042460445484944</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02329033333333333</v>
+        <v>0.02659666666666667</v>
       </c>
       <c r="N17">
-        <v>0.069871</v>
+        <v>0.07979</v>
       </c>
       <c r="O17">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306651</v>
       </c>
       <c r="P17">
-        <v>0.009278205267294668</v>
+        <v>0.009955866774306652</v>
       </c>
       <c r="Q17">
-        <v>0.0009214276942222223</v>
+        <v>0.00734500639111111</v>
       </c>
       <c r="R17">
-        <v>0.008292849248000002</v>
+        <v>0.06610505752</v>
       </c>
       <c r="S17">
-        <v>6.248063113875759E-05</v>
+        <v>0.0004227305384258127</v>
       </c>
       <c r="T17">
-        <v>6.248063113875761E-05</v>
+        <v>0.0004227305384258129</v>
       </c>
     </row>
   </sheetData>
